--- a/User_Stories_Shopping_Portal_and_CMS.xlsx
+++ b/User_Stories_Shopping_Portal_and_CMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeRepo\JustPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F27D41-7D35-43E0-A9E5-79AE773C3F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8510CB54-B7FA-45EB-8488-49667CA30412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
   <si>
     <t>Module</t>
   </si>
@@ -208,21 +208,6 @@
     <t>We can support users from different regions</t>
   </si>
   <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
-    <t>Column6</t>
-  </si>
-  <si>
     <t>Marketing</t>
   </si>
   <si>
@@ -263,6 +248,9 @@
   </si>
   <si>
     <t>Localization</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -409,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -417,43 +405,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -494,21 +470,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE5CC4CC-3BEB-4799-AF63-5EBC30670B7E}" name="Table1" displayName="Table1" ref="A1:J33" totalsRowShown="0">
-  <autoFilter ref="A1:J33" xr:uid="{EE5CC4CC-3BEB-4799-AF63-5EBC30670B7E}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE5CC4CC-3BEB-4799-AF63-5EBC30670B7E}" name="Table1" displayName="Table1" ref="A1:F33" totalsRowShown="0">
+  <autoFilter ref="A1:F33" xr:uid="{EE5CC4CC-3BEB-4799-AF63-5EBC30670B7E}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{8159717B-B644-4A26-A567-13EA8E19A9C1}" name="Product" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{C502F8A3-0646-4B44-A501-B9AAC0A53B86}" name="Module" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{9A49F738-00A9-4E2C-86E5-4D49AC988549}" name="As a" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{B5DF35E6-F176-482D-B30A-B795C36669F0}" name="I want to" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{327CC36A-4FEE-4039-8C82-CB6FC7AD8095}" name="So that" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{A4C91384-8AFD-4E70-9DAD-E9F2B1568562}" name="Column6" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{A4C91384-8AFD-4E70-9DAD-E9F2B1568562}" name="Title" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(" ", TRUE, "As a",C2,"I want to",D2,"So that", E2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{3E9E6174-9094-4B48-B33F-531C8F43E9B3}" name="Column2"/>
-    <tableColumn id="9" xr3:uid="{8A133461-4910-4A47-9AF4-0A53E9E07ECE}" name="Column3"/>
-    <tableColumn id="10" xr3:uid="{346AB10F-1DE3-4EBC-9E95-1BB00D6FCAD1}" name="Column4"/>
-    <tableColumn id="11" xr3:uid="{3C44865C-2837-4BA0-A309-DF3397B2243F}" name="Column5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -835,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection sqref="A1:F33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -849,12 +821,11 @@
     <col min="4" max="4" width="25.90625" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.26953125" style="1" customWidth="1"/>
     <col min="6" max="6" width="61.81640625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -869,27 +840,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -905,12 +864,12 @@
         <v>As a New Visitor I want to Create an account using my email and password So that I can access personalized services like order tracking and faster checkout</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -926,7 +885,7 @@
         <v>As a Registered User I want to Log in securely using email and password So that I can access my account and purchase items</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -947,7 +906,7 @@
         <v>As a Shopper I want to Browse products by categories So that I can explore available items based on my interests</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -968,7 +927,7 @@
         <v>As a User I want to Search for products using keywords So that I can quickly find specific products</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -989,12 +948,12 @@
         <v>As a Customer I want to View product details So that I can make an informed buying decision</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -1010,12 +969,12 @@
         <v>As a User I want to Add products to my shopping cart So that I can buy them later</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -1031,12 +990,12 @@
         <v>As a Logged-in User I want to Proceed to checkout So that I can place an order and make payment</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -1052,7 +1011,7 @@
         <v>As a Customer I want to Track my order status So that I know when my delivery will arrive</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1073,12 +1032,12 @@
         <v>As a User I want to Save products to a wishlist So that I can revisit them later</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -1094,96 +1053,96 @@
         <v>As a User I want to Edit my personal information So that My profile is up to date</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1" t="str">
         <f t="shared" ref="F12" si="1">_xlfn.TEXTJOIN(" ", TRUE, "As a",C12,"I want to",D12,"So that", E12)</f>
         <v>As a Market Manager I want to Define Promotions So that I can highlight Promoted Items to customer</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" ref="F13" si="2">_xlfn.TEXTJOIN(" ", TRUE, "As a",C13,"I want to",D13,"So that", E13)</f>
         <v>As a Market Manager I want to Create sitemap So that I can expose it to Search Engines to increase visibility of portal</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" ref="F14:F15" si="3">_xlfn.TEXTJOIN(" ", TRUE, "As a",C14,"I want to",D14,"So that", E14)</f>
         <v>As a Market Manager I want to Make SEO Friendly Markups So that I can give better understanding to Search Engines about portal</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="3"/>
         <v>As a User I want to Give my shipping address So that I can get my order on address defined</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>25</v>
@@ -1194,25 +1153,25 @@
       <c r="E16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="3" t="str">
+      <c r="F16" s="1" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, "As a",C16,"I want to",D16,"So that", E16)</f>
         <v>As a Localization Manager I want to Translate content into multiple languages So that We can support users from different regions</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F17" s="3" t="str">
+      <c r="F17" s="1" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, "As a",C17,"I want to",D17,"So that", E17)</f>
         <v>As a I want to So that</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F18" s="3" t="str">
+      <c r="F18" s="1" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, "As a",C18,"I want to",D18,"So that", E18)</f>
         <v>As a I want to So that</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F19" s="3" t="str">
+      <c r="F19" s="1" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, "As a",C19,"I want to",D19,"So that", E19)</f>
         <v>As a I want to So that</v>
       </c>
@@ -1356,37 +1315,37 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F28" s="3" t="str">
+      <c r="F28" s="1" t="str">
         <f t="shared" ref="F28:F33" si="4">_xlfn.TEXTJOIN(" ", TRUE, "As a",C28,"I want to",D28,"So that", E28)</f>
         <v>As a I want to So that</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F29" s="3" t="str">
+      <c r="F29" s="1" t="str">
         <f t="shared" si="4"/>
         <v>As a I want to So that</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F30" s="3" t="str">
+      <c r="F30" s="1" t="str">
         <f t="shared" si="4"/>
         <v>As a I want to So that</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F31" s="3" t="str">
+      <c r="F31" s="1" t="str">
         <f t="shared" si="4"/>
         <v>As a I want to So that</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F32" s="3" t="str">
+      <c r="F32" s="1" t="str">
         <f t="shared" si="4"/>
         <v>As a I want to So that</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F33" s="3" t="str">
+      <c r="F33" s="1" t="str">
         <f t="shared" si="4"/>
         <v>As a I want to So that</v>
       </c>
@@ -1418,388 +1377,388 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="13"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="14"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="13"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="14"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="13"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="14"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="13"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="14"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="13"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="14"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="13"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="14"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="13"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="14"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="13"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="14"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="13"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="14"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="13"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="14"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="13"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="14"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="13"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="14"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="13"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="14"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="13"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="14"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="13"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="14"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="13"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="15"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
